--- a/Report Files/functional spec/Gantt.xlsx
+++ b/Report Files/functional spec/Gantt.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Ark3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1601,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2759,7 +2758,7 @@
       <c r="V21" s="70"/>
       <c r="W21" s="70"/>
       <c r="X21" s="59"/>
-      <c r="Y21" s="65"/>
+      <c r="Y21" s="59"/>
       <c r="Z21" s="51"/>
       <c r="AA21" s="51"/>
       <c r="AB21" s="51"/>

--- a/Report Files/functional spec/Gantt.xlsx
+++ b/Report Files/functional spec/Gantt.xlsx
@@ -1600,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Y21" sqref="Y21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AR12" sqref="AR12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2759,11 +2759,11 @@
       <c r="W21" s="70"/>
       <c r="X21" s="59"/>
       <c r="Y21" s="59"/>
-      <c r="Z21" s="51"/>
-      <c r="AA21" s="51"/>
-      <c r="AB21" s="51"/>
-      <c r="AC21" s="51"/>
-      <c r="AD21" s="51"/>
+      <c r="Z21" s="59"/>
+      <c r="AA21" s="59"/>
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="59"/>
       <c r="AE21" s="51"/>
       <c r="AF21" s="51"/>
       <c r="AG21" s="51"/>

--- a/Report Files/functional spec/Gantt.xlsx
+++ b/Report Files/functional spec/Gantt.xlsx
@@ -1601,7 +1601,7 @@
   <dimension ref="A1:AP38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AR12" sqref="AR12"/>
+      <selection activeCell="AV13" sqref="AV13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2764,7 +2764,7 @@
       <c r="AB21" s="59"/>
       <c r="AC21" s="59"/>
       <c r="AD21" s="59"/>
-      <c r="AE21" s="51"/>
+      <c r="AE21" s="59"/>
       <c r="AF21" s="51"/>
       <c r="AG21" s="51"/>
       <c r="AH21" s="51"/>

--- a/Report Files/functional spec/Gantt.xlsx
+++ b/Report Files/functional spec/Gantt.xlsx
@@ -1089,7 +1089,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1183,7 +1183,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1211,7 +1210,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1601,7 +1599,7 @@
   <dimension ref="A1:AP38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AV13" sqref="AV13"/>
+      <selection activeCell="AN32" sqref="AN32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1663,106 +1661,106 @@
     </row>
     <row r="2" spans="1:42" ht="40.5" customHeight="1" thickBot="1">
       <c r="A2" s="30"/>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="111" t="s">
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
-      <c r="AB2" s="112"/>
-      <c r="AC2" s="112"/>
-      <c r="AD2" s="112"/>
-      <c r="AE2" s="112"/>
-      <c r="AF2" s="112"/>
-      <c r="AG2" s="112"/>
-      <c r="AH2" s="112"/>
-      <c r="AI2" s="112"/>
-      <c r="AJ2" s="112"/>
-      <c r="AK2" s="112"/>
-      <c r="AL2" s="112"/>
-      <c r="AM2" s="112"/>
-      <c r="AN2" s="112"/>
-      <c r="AO2" s="113"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="110"/>
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="110"/>
+      <c r="AF2" s="110"/>
+      <c r="AG2" s="110"/>
+      <c r="AH2" s="110"/>
+      <c r="AI2" s="110"/>
+      <c r="AJ2" s="110"/>
+      <c r="AK2" s="110"/>
+      <c r="AL2" s="110"/>
+      <c r="AM2" s="110"/>
+      <c r="AN2" s="110"/>
+      <c r="AO2" s="111"/>
       <c r="AP2" s="27"/>
     </row>
     <row r="3" spans="1:42" ht="26.25" customHeight="1" thickBot="1">
       <c r="A3" s="30"/>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="106"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="104"/>
       <c r="F3" s="27"/>
-      <c r="G3" s="107" t="s">
+      <c r="G3" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="99" t="s">
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="99" t="s">
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="99"/>
-      <c r="W3" s="99"/>
-      <c r="X3" s="99"/>
-      <c r="Y3" s="99"/>
-      <c r="Z3" s="99"/>
-      <c r="AA3" s="110"/>
-      <c r="AB3" s="99" t="s">
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="108"/>
+      <c r="AB3" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="99"/>
-      <c r="AE3" s="99"/>
-      <c r="AF3" s="99"/>
-      <c r="AG3" s="99"/>
-      <c r="AH3" s="110"/>
-      <c r="AI3" s="99" t="s">
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="108"/>
+      <c r="AI3" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="AJ3" s="99"/>
-      <c r="AK3" s="99"/>
-      <c r="AL3" s="99"/>
-      <c r="AM3" s="99"/>
-      <c r="AN3" s="99"/>
-      <c r="AO3" s="100"/>
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="97"/>
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97"/>
+      <c r="AN3" s="97"/>
+      <c r="AO3" s="98"/>
       <c r="AP3" s="29"/>
     </row>
     <row r="4" spans="1:42" ht="17.25" customHeight="1" thickBot="1">
@@ -1778,159 +1776,159 @@
         <v>27</v>
       </c>
       <c r="F4" s="27"/>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="54" t="s">
+      <c r="I4" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="54" t="s">
+      <c r="J4" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="54" t="s">
+      <c r="K4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="55" t="s">
+      <c r="L4" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="54" t="s">
+      <c r="M4" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="54" t="s">
+      <c r="N4" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="54" t="s">
+      <c r="O4" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="54" t="s">
+      <c r="P4" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="54" t="s">
+      <c r="Q4" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="R4" s="54" t="s">
+      <c r="R4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="S4" s="54" t="s">
+      <c r="S4" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="T4" s="56" t="s">
+      <c r="T4" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="U4" s="54" t="s">
+      <c r="U4" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="54" t="s">
+      <c r="V4" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="W4" s="54" t="s">
+      <c r="W4" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="X4" s="54" t="s">
+      <c r="X4" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="Y4" s="54" t="s">
+      <c r="Y4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="Z4" s="54" t="s">
+      <c r="Z4" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="AA4" s="56" t="s">
+      <c r="AA4" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="AB4" s="54" t="s">
+      <c r="AB4" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="AC4" s="54" t="s">
+      <c r="AC4" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="AD4" s="54" t="s">
+      <c r="AD4" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="AE4" s="54" t="s">
+      <c r="AE4" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="AF4" s="54" t="s">
+      <c r="AF4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="AG4" s="54" t="s">
+      <c r="AG4" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="AH4" s="56" t="s">
+      <c r="AH4" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="AI4" s="54" t="s">
+      <c r="AI4" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="AJ4" s="54" t="s">
+      <c r="AJ4" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="AK4" s="54" t="s">
+      <c r="AK4" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="AL4" s="54" t="s">
+      <c r="AL4" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="AM4" s="54" t="s">
+      <c r="AM4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="AN4" s="54" t="s">
+      <c r="AN4" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="AO4" s="57" t="s">
+      <c r="AO4" s="56" t="s">
         <v>46</v>
       </c>
       <c r="AP4" s="29"/>
     </row>
     <row r="5" spans="1:42" ht="26.25" thickBot="1">
       <c r="A5" s="30"/>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61" t="s">
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="60" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="27"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="70"/>
-      <c r="X5" s="70"/>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="70"/>
-      <c r="AA5" s="70"/>
-      <c r="AB5" s="70"/>
-      <c r="AC5" s="70"/>
-      <c r="AD5" s="70"/>
-      <c r="AE5" s="70"/>
-      <c r="AF5" s="70"/>
-      <c r="AG5" s="70"/>
-      <c r="AH5" s="70"/>
-      <c r="AI5" s="70"/>
-      <c r="AJ5" s="70"/>
-      <c r="AK5" s="70"/>
-      <c r="AL5" s="70"/>
-      <c r="AM5" s="70"/>
-      <c r="AN5" s="70"/>
-      <c r="AO5" s="71"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="68"/>
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="68"/>
+      <c r="AD5" s="68"/>
+      <c r="AE5" s="68"/>
+      <c r="AF5" s="68"/>
+      <c r="AG5" s="68"/>
+      <c r="AH5" s="68"/>
+      <c r="AI5" s="68"/>
+      <c r="AJ5" s="68"/>
+      <c r="AK5" s="68"/>
+      <c r="AL5" s="68"/>
+      <c r="AM5" s="68"/>
+      <c r="AN5" s="68"/>
+      <c r="AO5" s="69"/>
       <c r="AP5" s="29"/>
     </row>
     <row r="6" spans="1:42" ht="16.5" customHeight="1" thickBot="1">
@@ -1974,24 +1972,24 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
-      <c r="W6" s="81"/>
-      <c r="X6" s="78"/>
-      <c r="Y6" s="78"/>
-      <c r="Z6" s="78"/>
-      <c r="AA6" s="78"/>
-      <c r="AB6" s="78"/>
-      <c r="AC6" s="78"/>
-      <c r="AD6" s="78"/>
-      <c r="AE6" s="78"/>
-      <c r="AF6" s="78"/>
-      <c r="AG6" s="78"/>
-      <c r="AH6" s="78"/>
-      <c r="AI6" s="78"/>
-      <c r="AJ6" s="78"/>
-      <c r="AK6" s="78"/>
-      <c r="AL6" s="78"/>
-      <c r="AM6" s="78"/>
-      <c r="AN6" s="78"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="76"/>
+      <c r="AD6" s="76"/>
+      <c r="AE6" s="76"/>
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="76"/>
+      <c r="AH6" s="76"/>
+      <c r="AI6" s="76"/>
+      <c r="AJ6" s="76"/>
+      <c r="AK6" s="76"/>
+      <c r="AL6" s="76"/>
+      <c r="AM6" s="76"/>
+      <c r="AN6" s="76"/>
       <c r="AO6" s="17"/>
       <c r="AP6" s="29"/>
     </row>
@@ -2017,7 +2015,7 @@
       <c r="K7" s="26">
         <v>24</v>
       </c>
-      <c r="L7" s="67">
+      <c r="L7" s="65">
         <v>25</v>
       </c>
       <c r="M7" s="24">
@@ -2034,73 +2032,73 @@
       <c r="T7" s="19"/>
       <c r="U7" s="19"/>
       <c r="V7" s="19"/>
-      <c r="W7" s="83"/>
-      <c r="X7" s="80"/>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="80"/>
-      <c r="AA7" s="80"/>
-      <c r="AB7" s="80"/>
-      <c r="AC7" s="80"/>
-      <c r="AD7" s="80"/>
-      <c r="AE7" s="80"/>
-      <c r="AF7" s="80"/>
-      <c r="AG7" s="80"/>
-      <c r="AH7" s="80"/>
-      <c r="AI7" s="80"/>
-      <c r="AJ7" s="80"/>
-      <c r="AK7" s="80"/>
-      <c r="AL7" s="80"/>
-      <c r="AM7" s="80"/>
-      <c r="AN7" s="80"/>
+      <c r="W7" s="81"/>
+      <c r="X7" s="78"/>
+      <c r="Y7" s="78"/>
+      <c r="Z7" s="78"/>
+      <c r="AA7" s="78"/>
+      <c r="AB7" s="78"/>
+      <c r="AC7" s="78"/>
+      <c r="AD7" s="78"/>
+      <c r="AE7" s="78"/>
+      <c r="AF7" s="78"/>
+      <c r="AG7" s="78"/>
+      <c r="AH7" s="78"/>
+      <c r="AI7" s="78"/>
+      <c r="AJ7" s="78"/>
+      <c r="AK7" s="78"/>
+      <c r="AL7" s="78"/>
+      <c r="AM7" s="78"/>
+      <c r="AN7" s="78"/>
       <c r="AO7" s="39"/>
       <c r="AP7" s="29"/>
     </row>
     <row r="8" spans="1:42" ht="26.25" thickBot="1">
       <c r="A8" s="30"/>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="64" t="s">
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="63" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="27"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
-      <c r="S8" s="70"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="70"/>
-      <c r="V8" s="70"/>
-      <c r="W8" s="70"/>
-      <c r="X8" s="70"/>
-      <c r="Y8" s="70"/>
-      <c r="Z8" s="70"/>
-      <c r="AA8" s="70"/>
-      <c r="AB8" s="70"/>
-      <c r="AC8" s="70"/>
-      <c r="AD8" s="70"/>
-      <c r="AE8" s="70"/>
-      <c r="AF8" s="70"/>
-      <c r="AG8" s="70"/>
-      <c r="AH8" s="70"/>
-      <c r="AI8" s="70"/>
-      <c r="AJ8" s="70"/>
-      <c r="AK8" s="70"/>
-      <c r="AL8" s="70"/>
-      <c r="AM8" s="70"/>
-      <c r="AN8" s="70"/>
-      <c r="AO8" s="71"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="68"/>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="68"/>
+      <c r="AC8" s="68"/>
+      <c r="AD8" s="68"/>
+      <c r="AE8" s="68"/>
+      <c r="AF8" s="68"/>
+      <c r="AG8" s="68"/>
+      <c r="AH8" s="68"/>
+      <c r="AI8" s="68"/>
+      <c r="AJ8" s="68"/>
+      <c r="AK8" s="68"/>
+      <c r="AL8" s="68"/>
+      <c r="AM8" s="68"/>
+      <c r="AN8" s="68"/>
+      <c r="AO8" s="69"/>
       <c r="AP8" s="29"/>
     </row>
     <row r="9" spans="1:42" ht="16.5" thickBot="1">
@@ -2136,26 +2134,26 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="81"/>
-      <c r="V9" s="78"/>
-      <c r="W9" s="78"/>
-      <c r="X9" s="96"/>
-      <c r="Y9" s="84"/>
-      <c r="Z9" s="84"/>
-      <c r="AA9" s="81"/>
-      <c r="AB9" s="81"/>
-      <c r="AC9" s="78"/>
-      <c r="AD9" s="81"/>
-      <c r="AE9" s="78"/>
-      <c r="AF9" s="78"/>
-      <c r="AG9" s="78"/>
-      <c r="AH9" s="78"/>
-      <c r="AI9" s="78"/>
-      <c r="AJ9" s="78"/>
-      <c r="AK9" s="78"/>
-      <c r="AL9" s="78"/>
-      <c r="AM9" s="78"/>
-      <c r="AN9" s="78"/>
+      <c r="U9" s="79"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="76"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="79"/>
+      <c r="AB9" s="79"/>
+      <c r="AC9" s="76"/>
+      <c r="AD9" s="79"/>
+      <c r="AE9" s="76"/>
+      <c r="AF9" s="76"/>
+      <c r="AG9" s="76"/>
+      <c r="AH9" s="76"/>
+      <c r="AI9" s="76"/>
+      <c r="AJ9" s="76"/>
+      <c r="AK9" s="76"/>
+      <c r="AL9" s="76"/>
+      <c r="AM9" s="76"/>
+      <c r="AN9" s="76"/>
       <c r="AO9" s="17"/>
       <c r="AP9" s="29"/>
     </row>
@@ -2185,7 +2183,7 @@
       <c r="O10" s="23">
         <v>28</v>
       </c>
-      <c r="P10" s="94"/>
+      <c r="P10" s="92"/>
       <c r="Q10" s="2" t="s">
         <v>73</v>
       </c>
@@ -2197,20 +2195,20 @@
       <c r="W10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="82"/>
-      <c r="AB10" s="82"/>
-      <c r="AC10" s="79"/>
-      <c r="AD10" s="82"/>
-      <c r="AE10" s="79"/>
-      <c r="AF10" s="79"/>
-      <c r="AG10" s="79"/>
-      <c r="AH10" s="79"/>
-      <c r="AI10" s="79"/>
-      <c r="AJ10" s="79"/>
-      <c r="AK10" s="79"/>
-      <c r="AL10" s="79"/>
-      <c r="AM10" s="79"/>
-      <c r="AN10" s="79"/>
+      <c r="AA10" s="80"/>
+      <c r="AB10" s="80"/>
+      <c r="AC10" s="77"/>
+      <c r="AD10" s="80"/>
+      <c r="AE10" s="77"/>
+      <c r="AF10" s="77"/>
+      <c r="AG10" s="77"/>
+      <c r="AH10" s="77"/>
+      <c r="AI10" s="77"/>
+      <c r="AJ10" s="77"/>
+      <c r="AK10" s="77"/>
+      <c r="AL10" s="77"/>
+      <c r="AM10" s="77"/>
+      <c r="AN10" s="77"/>
       <c r="AO10" s="17"/>
       <c r="AP10" s="29"/>
     </row>
@@ -2236,8 +2234,8 @@
       <c r="K11" s="38"/>
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="95"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="93"/>
       <c r="P11" s="40">
         <v>29</v>
       </c>
@@ -2250,69 +2248,69 @@
       <c r="X11" s="19"/>
       <c r="Y11" s="19"/>
       <c r="Z11" s="19"/>
-      <c r="AA11" s="83"/>
-      <c r="AB11" s="83"/>
-      <c r="AC11" s="80"/>
-      <c r="AD11" s="83"/>
-      <c r="AE11" s="80"/>
-      <c r="AF11" s="80"/>
-      <c r="AG11" s="80"/>
-      <c r="AH11" s="80"/>
-      <c r="AI11" s="80"/>
-      <c r="AJ11" s="80"/>
-      <c r="AK11" s="80"/>
-      <c r="AL11" s="80"/>
-      <c r="AM11" s="80"/>
-      <c r="AN11" s="80"/>
+      <c r="AA11" s="81"/>
+      <c r="AB11" s="81"/>
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="81"/>
+      <c r="AE11" s="78"/>
+      <c r="AF11" s="78"/>
+      <c r="AG11" s="78"/>
+      <c r="AH11" s="78"/>
+      <c r="AI11" s="78"/>
+      <c r="AJ11" s="78"/>
+      <c r="AK11" s="78"/>
+      <c r="AL11" s="78"/>
+      <c r="AM11" s="78"/>
+      <c r="AN11" s="78"/>
       <c r="AO11" s="39"/>
       <c r="AP11" s="29"/>
     </row>
     <row r="12" spans="1:42" ht="26.25" thickBot="1">
       <c r="A12" s="30"/>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="64" t="s">
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="63" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="27"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="70"/>
-      <c r="W12" s="70"/>
-      <c r="X12" s="70"/>
-      <c r="Y12" s="70"/>
-      <c r="Z12" s="70"/>
-      <c r="AA12" s="70"/>
-      <c r="AB12" s="70"/>
-      <c r="AC12" s="70"/>
-      <c r="AD12" s="70"/>
-      <c r="AE12" s="70"/>
-      <c r="AF12" s="70"/>
-      <c r="AG12" s="70"/>
-      <c r="AH12" s="70"/>
-      <c r="AI12" s="70"/>
-      <c r="AJ12" s="70"/>
-      <c r="AK12" s="70"/>
-      <c r="AL12" s="70"/>
-      <c r="AM12" s="70"/>
-      <c r="AN12" s="70"/>
-      <c r="AO12" s="71"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="68"/>
+      <c r="AE12" s="68"/>
+      <c r="AF12" s="68"/>
+      <c r="AG12" s="68"/>
+      <c r="AH12" s="68"/>
+      <c r="AI12" s="68"/>
+      <c r="AJ12" s="68"/>
+      <c r="AK12" s="68"/>
+      <c r="AL12" s="68"/>
+      <c r="AM12" s="68"/>
+      <c r="AN12" s="68"/>
+      <c r="AO12" s="69"/>
       <c r="AP12" s="29"/>
     </row>
     <row r="13" spans="1:42" ht="16.5" thickBot="1">
@@ -2340,10 +2338,10 @@
       <c r="N13" s="44"/>
       <c r="O13" s="44"/>
       <c r="P13" s="44"/>
-      <c r="Q13" s="86">
+      <c r="Q13" s="84">
         <v>30</v>
       </c>
-      <c r="R13" s="86">
+      <c r="R13" s="84">
         <v>1</v>
       </c>
       <c r="S13" s="2" t="s">
@@ -2359,12 +2357,12 @@
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
-      <c r="AI13" s="81"/>
-      <c r="AJ13" s="78"/>
-      <c r="AK13" s="78"/>
-      <c r="AL13" s="81"/>
-      <c r="AM13" s="78"/>
-      <c r="AN13" s="78"/>
+      <c r="AI13" s="79"/>
+      <c r="AJ13" s="76"/>
+      <c r="AK13" s="76"/>
+      <c r="AL13" s="79"/>
+      <c r="AM13" s="76"/>
+      <c r="AN13" s="76"/>
       <c r="AO13" s="17"/>
       <c r="AP13" s="29"/>
     </row>
@@ -2412,61 +2410,61 @@
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
       <c r="AH14" s="19"/>
-      <c r="AI14" s="83"/>
-      <c r="AJ14" s="80"/>
-      <c r="AK14" s="80"/>
-      <c r="AL14" s="83"/>
-      <c r="AM14" s="80"/>
-      <c r="AN14" s="80"/>
+      <c r="AI14" s="81"/>
+      <c r="AJ14" s="78"/>
+      <c r="AK14" s="78"/>
+      <c r="AL14" s="81"/>
+      <c r="AM14" s="78"/>
+      <c r="AN14" s="78"/>
       <c r="AO14" s="39"/>
       <c r="AP14" s="29"/>
     </row>
     <row r="15" spans="1:42" ht="26.25" thickBot="1">
       <c r="A15" s="30"/>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="64" t="s">
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="27"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="70"/>
-      <c r="Y15" s="70"/>
-      <c r="Z15" s="70"/>
-      <c r="AA15" s="70"/>
-      <c r="AB15" s="70"/>
-      <c r="AC15" s="70"/>
-      <c r="AD15" s="70"/>
-      <c r="AE15" s="70"/>
-      <c r="AF15" s="70"/>
-      <c r="AG15" s="70"/>
-      <c r="AH15" s="70"/>
-      <c r="AI15" s="70"/>
-      <c r="AJ15" s="70"/>
-      <c r="AK15" s="70"/>
-      <c r="AL15" s="70"/>
-      <c r="AM15" s="70"/>
-      <c r="AN15" s="70"/>
-      <c r="AO15" s="71"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="68"/>
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="68"/>
+      <c r="AE15" s="68"/>
+      <c r="AF15" s="68"/>
+      <c r="AG15" s="68"/>
+      <c r="AH15" s="68"/>
+      <c r="AI15" s="68"/>
+      <c r="AJ15" s="68"/>
+      <c r="AK15" s="68"/>
+      <c r="AL15" s="68"/>
+      <c r="AM15" s="68"/>
+      <c r="AN15" s="68"/>
+      <c r="AO15" s="69"/>
       <c r="AP15" s="29"/>
     </row>
     <row r="16" spans="1:42" ht="16.5" thickBot="1">
@@ -2495,29 +2493,29 @@
       <c r="O16" s="46"/>
       <c r="P16" s="46"/>
       <c r="Q16" s="44"/>
-      <c r="R16" s="87"/>
-      <c r="S16" s="88"/>
-      <c r="T16" s="91"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="86"/>
+      <c r="T16" s="89"/>
       <c r="U16" s="21">
         <v>4</v>
       </c>
-      <c r="V16" s="84"/>
-      <c r="W16" s="84" t="s">
+      <c r="V16" s="82"/>
+      <c r="W16" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="Y16" s="84"/>
-      <c r="Z16" s="84"/>
-      <c r="AD16" s="78"/>
-      <c r="AE16" s="78"/>
-      <c r="AF16" s="78"/>
-      <c r="AG16" s="78"/>
-      <c r="AH16" s="78"/>
-      <c r="AI16" s="78"/>
-      <c r="AJ16" s="78"/>
-      <c r="AK16" s="78"/>
-      <c r="AL16" s="78"/>
-      <c r="AM16" s="78"/>
-      <c r="AN16" s="78"/>
+      <c r="Y16" s="82"/>
+      <c r="Z16" s="82"/>
+      <c r="AD16" s="76"/>
+      <c r="AE16" s="76"/>
+      <c r="AF16" s="76"/>
+      <c r="AG16" s="76"/>
+      <c r="AH16" s="76"/>
+      <c r="AI16" s="76"/>
+      <c r="AJ16" s="76"/>
+      <c r="AK16" s="76"/>
+      <c r="AL16" s="76"/>
+      <c r="AM16" s="76"/>
+      <c r="AN16" s="76"/>
       <c r="AO16" s="17"/>
       <c r="AP16" s="29"/>
     </row>
@@ -2548,9 +2546,9 @@
       <c r="P17" s="36"/>
       <c r="Q17" s="34"/>
       <c r="R17" s="36"/>
-      <c r="S17" s="89"/>
-      <c r="T17" s="92"/>
-      <c r="U17" s="92"/>
+      <c r="S17" s="87"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="90"/>
       <c r="V17" s="24">
         <v>5</v>
       </c>
@@ -2559,17 +2557,17 @@
         <v>66</v>
       </c>
       <c r="Z17" s="2"/>
-      <c r="AD17" s="79"/>
-      <c r="AE17" s="79"/>
-      <c r="AF17" s="79"/>
-      <c r="AG17" s="79"/>
-      <c r="AH17" s="79"/>
-      <c r="AI17" s="79"/>
-      <c r="AJ17" s="79"/>
-      <c r="AK17" s="79"/>
-      <c r="AL17" s="79"/>
-      <c r="AM17" s="79"/>
-      <c r="AN17" s="79"/>
+      <c r="AD17" s="77"/>
+      <c r="AE17" s="77"/>
+      <c r="AF17" s="77"/>
+      <c r="AG17" s="77"/>
+      <c r="AH17" s="77"/>
+      <c r="AI17" s="77"/>
+      <c r="AJ17" s="77"/>
+      <c r="AK17" s="77"/>
+      <c r="AL17" s="77"/>
+      <c r="AM17" s="77"/>
+      <c r="AN17" s="77"/>
       <c r="AO17" s="17"/>
       <c r="AP17" s="29"/>
     </row>
@@ -2600,9 +2598,9 @@
       <c r="P18" s="36"/>
       <c r="Q18" s="34"/>
       <c r="R18" s="36"/>
-      <c r="S18" s="89"/>
-      <c r="T18" s="92"/>
-      <c r="U18" s="92"/>
+      <c r="S18" s="87"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="90"/>
       <c r="V18" s="21">
         <v>5</v>
       </c>
@@ -2611,17 +2609,17 @@
         <v>67</v>
       </c>
       <c r="Z18" s="2"/>
-      <c r="AD18" s="79"/>
-      <c r="AE18" s="79"/>
-      <c r="AF18" s="79"/>
-      <c r="AG18" s="79"/>
-      <c r="AH18" s="79"/>
-      <c r="AI18" s="79"/>
-      <c r="AJ18" s="97"/>
-      <c r="AK18" s="82"/>
-      <c r="AL18" s="79"/>
-      <c r="AM18" s="79"/>
-      <c r="AN18" s="79"/>
+      <c r="AD18" s="77"/>
+      <c r="AE18" s="77"/>
+      <c r="AF18" s="77"/>
+      <c r="AG18" s="77"/>
+      <c r="AH18" s="77"/>
+      <c r="AI18" s="77"/>
+      <c r="AJ18" s="95"/>
+      <c r="AK18" s="80"/>
+      <c r="AL18" s="77"/>
+      <c r="AM18" s="77"/>
+      <c r="AN18" s="77"/>
       <c r="AO18" s="17"/>
       <c r="AP18" s="29"/>
     </row>
@@ -2652,9 +2650,9 @@
       <c r="P19" s="36"/>
       <c r="Q19" s="34"/>
       <c r="R19" s="36"/>
-      <c r="S19" s="89"/>
-      <c r="T19" s="92"/>
-      <c r="U19" s="92"/>
+      <c r="S19" s="87"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="90"/>
       <c r="V19" s="36"/>
       <c r="W19" s="24">
         <v>6</v>
@@ -2663,17 +2661,17 @@
       <c r="Y19" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AD19" s="79"/>
-      <c r="AE19" s="79"/>
-      <c r="AF19" s="79"/>
-      <c r="AG19" s="79"/>
-      <c r="AH19" s="79"/>
-      <c r="AI19" s="79"/>
-      <c r="AJ19" s="79"/>
-      <c r="AK19" s="79"/>
-      <c r="AL19" s="79"/>
-      <c r="AM19" s="79"/>
-      <c r="AN19" s="79"/>
+      <c r="AD19" s="77"/>
+      <c r="AE19" s="77"/>
+      <c r="AF19" s="77"/>
+      <c r="AG19" s="77"/>
+      <c r="AH19" s="77"/>
+      <c r="AI19" s="77"/>
+      <c r="AJ19" s="77"/>
+      <c r="AK19" s="77"/>
+      <c r="AL19" s="77"/>
+      <c r="AM19" s="77"/>
+      <c r="AN19" s="77"/>
       <c r="AO19" s="17"/>
       <c r="AP19" s="29"/>
     </row>
@@ -2704,9 +2702,9 @@
       <c r="P20" s="37"/>
       <c r="Q20" s="38"/>
       <c r="R20" s="37"/>
-      <c r="S20" s="90"/>
-      <c r="T20" s="93"/>
-      <c r="U20" s="93"/>
+      <c r="S20" s="88"/>
+      <c r="T20" s="91"/>
+      <c r="U20" s="91"/>
       <c r="V20" s="37"/>
       <c r="W20" s="24">
         <v>6</v>
@@ -2715,66 +2713,66 @@
       <c r="Y20" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AD20" s="80"/>
-      <c r="AE20" s="80"/>
-      <c r="AF20" s="80"/>
-      <c r="AG20" s="80"/>
-      <c r="AH20" s="80"/>
-      <c r="AI20" s="80"/>
-      <c r="AJ20" s="80"/>
-      <c r="AK20" s="98"/>
-      <c r="AL20" s="83"/>
-      <c r="AM20" s="80"/>
-      <c r="AN20" s="80"/>
+      <c r="AD20" s="78"/>
+      <c r="AE20" s="78"/>
+      <c r="AF20" s="78"/>
+      <c r="AG20" s="78"/>
+      <c r="AH20" s="78"/>
+      <c r="AI20" s="78"/>
+      <c r="AJ20" s="78"/>
+      <c r="AK20" s="96"/>
+      <c r="AL20" s="81"/>
+      <c r="AM20" s="78"/>
+      <c r="AN20" s="78"/>
       <c r="AO20" s="39"/>
       <c r="AP20" s="29"/>
     </row>
     <row r="21" spans="1:42" ht="26.25" thickBot="1">
       <c r="A21" s="30"/>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="64" t="s">
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="63" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="27"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="70"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="70"/>
-      <c r="U21" s="70"/>
-      <c r="V21" s="70"/>
-      <c r="W21" s="70"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="59"/>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="59"/>
-      <c r="AD21" s="59"/>
-      <c r="AE21" s="59"/>
-      <c r="AF21" s="51"/>
-      <c r="AG21" s="51"/>
-      <c r="AH21" s="51"/>
-      <c r="AI21" s="51"/>
-      <c r="AJ21" s="51"/>
-      <c r="AK21" s="65"/>
-      <c r="AL21" s="65"/>
-      <c r="AM21" s="70"/>
-      <c r="AN21" s="70"/>
-      <c r="AO21" s="71"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="68"/>
+      <c r="U21" s="68"/>
+      <c r="V21" s="68"/>
+      <c r="W21" s="68"/>
+      <c r="X21" s="58"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="58"/>
+      <c r="AB21" s="58"/>
+      <c r="AC21" s="58"/>
+      <c r="AD21" s="58"/>
+      <c r="AE21" s="58"/>
+      <c r="AF21" s="58"/>
+      <c r="AG21" s="58"/>
+      <c r="AH21" s="58"/>
+      <c r="AI21" s="58"/>
+      <c r="AJ21" s="58"/>
+      <c r="AK21" s="58"/>
+      <c r="AL21" s="58"/>
+      <c r="AM21" s="68"/>
+      <c r="AN21" s="68"/>
+      <c r="AO21" s="69"/>
       <c r="AP21" s="29"/>
     </row>
     <row r="22" spans="1:42" ht="16.5" thickBot="1">
@@ -2829,9 +2827,9 @@
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
       <c r="AK22" s="2"/>
-      <c r="AL22" s="81"/>
-      <c r="AM22" s="81"/>
-      <c r="AN22" s="81"/>
+      <c r="AL22" s="79"/>
+      <c r="AM22" s="79"/>
+      <c r="AN22" s="79"/>
       <c r="AO22" s="17"/>
       <c r="AP22" s="29"/>
     </row>
@@ -2884,12 +2882,12 @@
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
-      <c r="AI23" s="82"/>
-      <c r="AJ23" s="82"/>
-      <c r="AK23" s="82"/>
-      <c r="AL23" s="82"/>
-      <c r="AM23" s="82"/>
-      <c r="AN23" s="82"/>
+      <c r="AI23" s="80"/>
+      <c r="AJ23" s="80"/>
+      <c r="AK23" s="80"/>
+      <c r="AL23" s="80"/>
+      <c r="AM23" s="80"/>
+      <c r="AN23" s="80"/>
       <c r="AO23" s="17"/>
       <c r="AP23" s="29"/>
     </row>
@@ -2926,8 +2924,8 @@
       <c r="V24" s="47"/>
       <c r="W24" s="34"/>
       <c r="X24" s="34"/>
-      <c r="Y24" s="76"/>
-      <c r="Z24" s="78"/>
+      <c r="Y24" s="74"/>
+      <c r="Z24" s="76"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="40">
         <v>11</v>
@@ -2944,10 +2942,10 @@
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
-      <c r="AK24" s="82"/>
-      <c r="AL24" s="82"/>
-      <c r="AM24" s="82"/>
-      <c r="AN24" s="82"/>
+      <c r="AK24" s="80"/>
+      <c r="AL24" s="80"/>
+      <c r="AM24" s="80"/>
+      <c r="AN24" s="80"/>
       <c r="AO24" s="17"/>
       <c r="AP24" s="29"/>
     </row>
@@ -2986,10 +2984,10 @@
       <c r="V25" s="34"/>
       <c r="W25" s="34"/>
       <c r="X25" s="34"/>
-      <c r="Y25" s="76"/>
-      <c r="Z25" s="79"/>
-      <c r="AA25" s="79"/>
-      <c r="AB25" s="78"/>
+      <c r="Y25" s="74"/>
+      <c r="Z25" s="77"/>
+      <c r="AA25" s="77"/>
+      <c r="AB25" s="76"/>
       <c r="AC25" s="2"/>
       <c r="AD25" s="40">
         <v>13</v>
@@ -3006,8 +3004,8 @@
       <c r="AJ25" s="2"/>
       <c r="AK25" s="2"/>
       <c r="AL25" s="2"/>
-      <c r="AM25" s="82"/>
-      <c r="AN25" s="82"/>
+      <c r="AM25" s="80"/>
+      <c r="AN25" s="80"/>
       <c r="AO25" s="17"/>
       <c r="AP25" s="29"/>
     </row>
@@ -3044,12 +3042,12 @@
       <c r="V26" s="34"/>
       <c r="W26" s="34"/>
       <c r="X26" s="34"/>
-      <c r="Y26" s="76"/>
-      <c r="Z26" s="79"/>
-      <c r="AA26" s="79"/>
-      <c r="AB26" s="79"/>
-      <c r="AC26" s="79"/>
-      <c r="AD26" s="78"/>
+      <c r="Y26" s="74"/>
+      <c r="Z26" s="77"/>
+      <c r="AA26" s="77"/>
+      <c r="AB26" s="77"/>
+      <c r="AC26" s="77"/>
+      <c r="AD26" s="76"/>
       <c r="AE26" s="2"/>
       <c r="AF26" s="40">
         <v>15</v>
@@ -3104,14 +3102,14 @@
         <v>75</v>
       </c>
       <c r="X27" s="34"/>
-      <c r="Y27" s="76"/>
-      <c r="Z27" s="79"/>
-      <c r="AA27" s="79"/>
-      <c r="AB27" s="79"/>
-      <c r="AC27" s="79"/>
-      <c r="AD27" s="79"/>
-      <c r="AE27" s="79"/>
-      <c r="AF27" s="78"/>
+      <c r="Y27" s="74"/>
+      <c r="Z27" s="77"/>
+      <c r="AA27" s="77"/>
+      <c r="AB27" s="77"/>
+      <c r="AC27" s="77"/>
+      <c r="AD27" s="77"/>
+      <c r="AE27" s="77"/>
+      <c r="AF27" s="76"/>
       <c r="AG27" s="2"/>
       <c r="AH27" s="24">
         <v>17</v>
@@ -3120,10 +3118,10 @@
       <c r="AJ27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AK27" s="82"/>
-      <c r="AL27" s="82"/>
-      <c r="AM27" s="79"/>
-      <c r="AN27" s="79"/>
+      <c r="AK27" s="80"/>
+      <c r="AL27" s="80"/>
+      <c r="AM27" s="77"/>
+      <c r="AN27" s="77"/>
       <c r="AO27" s="17"/>
       <c r="AP27" s="29"/>
     </row>
@@ -3160,15 +3158,15 @@
       <c r="V28" s="34"/>
       <c r="W28" s="34"/>
       <c r="X28" s="34"/>
-      <c r="Y28" s="76"/>
-      <c r="Z28" s="79"/>
-      <c r="AA28" s="79"/>
-      <c r="AB28" s="79"/>
-      <c r="AC28" s="79"/>
-      <c r="AD28" s="79"/>
-      <c r="AE28" s="79"/>
-      <c r="AF28" s="79"/>
-      <c r="AG28" s="79"/>
+      <c r="Y28" s="74"/>
+      <c r="Z28" s="77"/>
+      <c r="AA28" s="77"/>
+      <c r="AB28" s="77"/>
+      <c r="AC28" s="77"/>
+      <c r="AD28" s="77"/>
+      <c r="AE28" s="77"/>
+      <c r="AF28" s="77"/>
+      <c r="AG28" s="77"/>
       <c r="AH28" s="2"/>
       <c r="AI28" s="40">
         <v>18</v>
@@ -3177,11 +3175,11 @@
         <v>19</v>
       </c>
       <c r="AK28" s="2"/>
-      <c r="AL28" s="82" t="s">
+      <c r="AL28" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="AM28" s="79"/>
-      <c r="AN28" s="79"/>
+      <c r="AM28" s="77"/>
+      <c r="AN28" s="77"/>
       <c r="AO28" s="17"/>
       <c r="AP28" s="29"/>
     </row>
@@ -3218,17 +3216,17 @@
       <c r="V29" s="34"/>
       <c r="W29" s="34"/>
       <c r="X29" s="34"/>
-      <c r="Y29" s="76"/>
-      <c r="Z29" s="79"/>
-      <c r="AA29" s="79"/>
-      <c r="AB29" s="79"/>
-      <c r="AC29" s="79"/>
-      <c r="AD29" s="79"/>
-      <c r="AE29" s="79"/>
-      <c r="AF29" s="79"/>
-      <c r="AG29" s="79"/>
-      <c r="AH29" s="79"/>
-      <c r="AI29" s="78"/>
+      <c r="Y29" s="74"/>
+      <c r="Z29" s="77"/>
+      <c r="AA29" s="77"/>
+      <c r="AB29" s="77"/>
+      <c r="AC29" s="77"/>
+      <c r="AD29" s="77"/>
+      <c r="AE29" s="77"/>
+      <c r="AF29" s="77"/>
+      <c r="AG29" s="77"/>
+      <c r="AH29" s="77"/>
+      <c r="AI29" s="76"/>
       <c r="AJ29" s="2"/>
       <c r="AK29" s="24">
         <v>20</v>
@@ -3274,17 +3272,17 @@
       <c r="V30" s="34"/>
       <c r="W30" s="34"/>
       <c r="X30" s="34"/>
-      <c r="Y30" s="76"/>
-      <c r="Z30" s="79"/>
-      <c r="AA30" s="79"/>
-      <c r="AB30" s="79"/>
-      <c r="AC30" s="79"/>
-      <c r="AD30" s="79"/>
-      <c r="AE30" s="79"/>
-      <c r="AF30" s="79"/>
-      <c r="AG30" s="79"/>
-      <c r="AH30" s="79"/>
-      <c r="AI30" s="79"/>
+      <c r="Y30" s="74"/>
+      <c r="Z30" s="77"/>
+      <c r="AA30" s="77"/>
+      <c r="AB30" s="77"/>
+      <c r="AC30" s="77"/>
+      <c r="AD30" s="77"/>
+      <c r="AE30" s="77"/>
+      <c r="AF30" s="77"/>
+      <c r="AG30" s="77"/>
+      <c r="AH30" s="77"/>
+      <c r="AI30" s="77"/>
       <c r="AJ30" s="2"/>
       <c r="AK30" s="24">
         <v>20</v>
@@ -3330,75 +3328,75 @@
       <c r="V31" s="38"/>
       <c r="W31" s="38"/>
       <c r="X31" s="38"/>
-      <c r="Y31" s="77"/>
-      <c r="Z31" s="80"/>
-      <c r="AA31" s="80"/>
-      <c r="AB31" s="80"/>
-      <c r="AC31" s="80"/>
-      <c r="AD31" s="80"/>
-      <c r="AE31" s="80"/>
-      <c r="AF31" s="80"/>
-      <c r="AG31" s="80"/>
-      <c r="AH31" s="80"/>
-      <c r="AI31" s="80"/>
+      <c r="Y31" s="75"/>
+      <c r="Z31" s="78"/>
+      <c r="AA31" s="78"/>
+      <c r="AB31" s="78"/>
+      <c r="AC31" s="78"/>
+      <c r="AD31" s="78"/>
+      <c r="AE31" s="78"/>
+      <c r="AF31" s="78"/>
+      <c r="AG31" s="78"/>
+      <c r="AH31" s="78"/>
+      <c r="AI31" s="78"/>
       <c r="AJ31" s="19"/>
       <c r="AK31" s="19"/>
       <c r="AL31" s="24">
         <v>21</v>
       </c>
-      <c r="AM31" s="75" t="s">
+      <c r="AM31" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="AN31" s="75"/>
+      <c r="AN31" s="73"/>
       <c r="AO31" s="39"/>
       <c r="AP31" s="29"/>
     </row>
     <row r="32" spans="1:42" ht="26.25" thickBot="1">
       <c r="A32" s="30"/>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="64" t="s">
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63" t="s">
         <v>19</v>
       </c>
       <c r="F32" s="27"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="70"/>
-      <c r="N32" s="70"/>
-      <c r="O32" s="70"/>
-      <c r="P32" s="70"/>
-      <c r="Q32" s="70"/>
-      <c r="R32" s="70"/>
-      <c r="S32" s="70"/>
-      <c r="T32" s="70"/>
-      <c r="U32" s="70"/>
-      <c r="V32" s="70"/>
-      <c r="W32" s="70"/>
-      <c r="X32" s="70"/>
-      <c r="Y32" s="70"/>
-      <c r="Z32" s="70"/>
-      <c r="AA32" s="70"/>
-      <c r="AB32" s="70"/>
-      <c r="AC32" s="70"/>
-      <c r="AD32" s="70"/>
-      <c r="AE32" s="70"/>
-      <c r="AF32" s="70"/>
-      <c r="AG32" s="70"/>
-      <c r="AH32" s="70"/>
-      <c r="AI32" s="70"/>
-      <c r="AJ32" s="70"/>
-      <c r="AK32" s="70"/>
-      <c r="AL32" s="70"/>
-      <c r="AM32" s="51"/>
-      <c r="AN32" s="51"/>
-      <c r="AO32" s="66"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="68"/>
+      <c r="Q32" s="68"/>
+      <c r="R32" s="68"/>
+      <c r="S32" s="68"/>
+      <c r="T32" s="68"/>
+      <c r="U32" s="68"/>
+      <c r="V32" s="68"/>
+      <c r="W32" s="68"/>
+      <c r="X32" s="68"/>
+      <c r="Y32" s="68"/>
+      <c r="Z32" s="68"/>
+      <c r="AA32" s="68"/>
+      <c r="AB32" s="68"/>
+      <c r="AC32" s="68"/>
+      <c r="AD32" s="68"/>
+      <c r="AE32" s="68"/>
+      <c r="AF32" s="68"/>
+      <c r="AG32" s="68"/>
+      <c r="AH32" s="68"/>
+      <c r="AI32" s="68"/>
+      <c r="AJ32" s="68"/>
+      <c r="AK32" s="68"/>
+      <c r="AL32" s="68"/>
+      <c r="AM32" s="58"/>
+      <c r="AN32" s="58"/>
+      <c r="AO32" s="64"/>
       <c r="AP32" s="29"/>
     </row>
     <row r="33" spans="1:42" ht="16.5" thickBot="1">
@@ -3451,7 +3449,7 @@
       <c r="AM33" s="24">
         <v>22</v>
       </c>
-      <c r="AN33" s="81"/>
+      <c r="AN33" s="79"/>
       <c r="AO33" s="17"/>
       <c r="AP33" s="29"/>
     </row>
@@ -3505,7 +3503,7 @@
       <c r="AM34" s="24">
         <v>22</v>
       </c>
-      <c r="AN34" s="82"/>
+      <c r="AN34" s="80"/>
       <c r="AO34" s="17"/>
       <c r="AP34" s="29"/>
     </row>
@@ -3559,7 +3557,7 @@
       <c r="AM35" s="24">
         <v>22</v>
       </c>
-      <c r="AN35" s="82"/>
+      <c r="AN35" s="80"/>
       <c r="AO35" s="17"/>
       <c r="AP35" s="29"/>
     </row>
@@ -3611,10 +3609,10 @@
       <c r="AK36" s="35"/>
       <c r="AL36" s="35"/>
       <c r="AM36" s="18"/>
-      <c r="AN36" s="68">
+      <c r="AN36" s="66">
         <v>23</v>
       </c>
-      <c r="AO36" s="69">
+      <c r="AO36" s="67">
         <v>24</v>
       </c>
       <c r="AP36" s="29"/>
